--- a/class_schedules/FRENCH (FREN).xlsx
+++ b/class_schedules/FRENCH (FREN).xlsx
@@ -14,27 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="65">
   <si>
     <t>101</t>
   </si>
   <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>500F</t>
-  </si>
-  <si>
-    <t>500H</t>
+    <t>205</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>505F</t>
+  </si>
+  <si>
+    <t>505H</t>
+  </si>
+  <si>
+    <t>995F</t>
   </si>
   <si>
     <t>995H</t>
@@ -43,94 +61,154 @@
     <t>01</t>
   </si>
   <si>
-    <t>13018</t>
-  </si>
-  <si>
-    <t>14821</t>
-  </si>
-  <si>
-    <t>14100</t>
-  </si>
-  <si>
-    <t>8959</t>
-  </si>
-  <si>
-    <t>8274</t>
-  </si>
-  <si>
-    <t>12602</t>
-  </si>
-  <si>
-    <t>12603</t>
-  </si>
-  <si>
-    <t>12253</t>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>1368</t>
+  </si>
+  <si>
+    <t>1370</t>
+  </si>
+  <si>
+    <t>13753</t>
+  </si>
+  <si>
+    <t>14671</t>
+  </si>
+  <si>
+    <t>13623</t>
+  </si>
+  <si>
+    <t>13624</t>
+  </si>
+  <si>
+    <t>14798</t>
+  </si>
+  <si>
+    <t>14793</t>
+  </si>
+  <si>
+    <t>14794</t>
+  </si>
+  <si>
+    <t>11021</t>
+  </si>
+  <si>
+    <t>11017</t>
+  </si>
+  <si>
+    <t>10442</t>
+  </si>
+  <si>
+    <t>10436</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Intro to GSFS</t>
-  </si>
-  <si>
-    <t>Sociology of Sexuality</t>
-  </si>
-  <si>
-    <t>Introduction to Queer Studies</t>
-  </si>
-  <si>
-    <t>Feminist Resrch Methodologies</t>
-  </si>
-  <si>
-    <t>Senior</t>
+    <t>Francais elementaire I</t>
+  </si>
+  <si>
+    <t>Francais intermediaire I</t>
+  </si>
+  <si>
+    <t>Expression orale et ecrite</t>
+  </si>
+  <si>
+    <t>Plaisir de lire</t>
+  </si>
+  <si>
+    <t>French Cinema: Nat'l/Global</t>
+  </si>
+  <si>
+    <t>Pratiques de l?ecrit</t>
+  </si>
+  <si>
+    <t>Intro a la litt francophone</t>
+  </si>
+  <si>
+    <t>La decolonisation du corps fem</t>
+  </si>
+  <si>
+    <t>Medicine, Lit, Biopower LXC</t>
+  </si>
+  <si>
+    <t>Medicine, Literature, Biopower</t>
+  </si>
+  <si>
+    <t>Honors -</t>
   </si>
   <si>
     <t>Private Reading -</t>
   </si>
   <si>
+    <t>MTWRF</t>
+  </si>
+  <si>
+    <t>MWF</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>TR</t>
   </si>
   <si>
-    <t>Capstone</t>
-  </si>
-  <si>
-    <t>Honors</t>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Full</t>
   </si>
   <si>
     <t>Half</t>
   </si>
   <si>
-    <t>0300-0415pm</t>
+    <t>0900-0950am</t>
+  </si>
+  <si>
+    <t>0130-0220pm</t>
+  </si>
+  <si>
+    <t>1100-1150am</t>
+  </si>
+  <si>
+    <t>0700-1030pm</t>
+  </si>
+  <si>
+    <t>0300-0420pm</t>
+  </si>
+  <si>
+    <t>0330-0420pm</t>
   </si>
   <si>
     <t>1100-1215pm</t>
   </si>
   <si>
-    <t>0300-0420pm</t>
-  </si>
-  <si>
     <t>TBA</t>
   </si>
   <si>
-    <t>Bachrach Emilia</t>
-  </si>
-  <si>
-    <t>Mattson Greggor</t>
-  </si>
-  <si>
-    <t>Cerankowski KJ</t>
+    <t>Rocheron Kevin</t>
+  </si>
+  <si>
+    <t>An Grace</t>
+  </si>
+  <si>
+    <t>Murphy Elah</t>
+  </si>
+  <si>
+    <t>Barbo Adrianne</t>
+  </si>
+  <si>
+    <t>Leelah Preeamvada</t>
+  </si>
+  <si>
+    <t>Senior Matthew</t>
   </si>
 </sst>
 </file>
@@ -488,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -569,31 +647,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -604,31 +682,31 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -639,31 +717,31 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -674,31 +752,31 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -709,28 +787,31 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -741,28 +822,31 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -773,31 +857,241 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" t="s">
-        <v>37</v>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
